--- a/kardio/razpis/msBackup/2024.xlsx
+++ b/kardio/razpis/msBackup/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majasostaric/Desktop/kardio/msBackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE2D62A-5F13-A84C-8B10-CAAEB9873C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9194DC3B-59CA-BC49-8FAB-801A54A675CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22220" windowHeight="12620" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Predloge" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="80">
   <si>
     <t>2024</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>Pregled</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>NPK</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1005,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1202,6 +1211,9 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1252,7 +1264,7 @@
     <cellStyle name="Warning 15" xfId="42" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Warning 16" xfId="43" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="144">
     <dxf>
       <font>
         <b/>
@@ -3227,6 +3239,456 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -29504,11 +29966,11 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="5" t="str">
         <f>Predloge!$A$1</f>
         <v>2024</v>
@@ -29601,7 +30063,7 @@
       </c>
       <c r="C5" s="71">
         <f>SUM(januar!D35,februar!D35,marec!C35,april!D35,maj!D35,junij!C35,julij!C35,avgust!D35,september!C35,oktober!D35,november!D35,december!D35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="71">
         <f>SUM(januar!E35,februar!E35,marec!D35,april!E35,maj!E35,junij!D35,julij!D35,avgust!E35,september!D35,oktober!E35,november!E35,december!E35)</f>
@@ -29617,15 +30079,15 @@
       </c>
       <c r="G5" s="71">
         <f>SUM(januar!H35,februar!H35,marec!G35,april!H35,maj!H35,junij!G35,julij!G35,avgust!H35,september!G35,oktober!H35,november!H35,december!H35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="71">
         <f>SUM(januar!I35,februar!I35,marec!H35,april!I35,maj!I35,junij!H35,julij!H35,avgust!I35,september!H35,oktober!I35,november!I35,december!I35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="71">
         <f>SUM(januar!J35,februar!J35,marec!I35,april!J35,maj!J35,junij!I35,julij!I35,avgust!J35,september!I35,oktober!J35,november!J35,december!J35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="71">
         <f>SUM(januar!K35,februar!K35,marec!J35,april!K35,maj!K35,junij!J35,julij!J35,avgust!K35,september!J35,oktober!K35,november!K35,december!K35)</f>
@@ -29637,7 +30099,7 @@
       </c>
       <c r="L5" s="71">
         <f>SUM(januar!M35,februar!M35,marec!L35,april!M35,maj!M35,junij!L35,julij!L35,avgust!M35,september!L35,oktober!M35,november!M35,december!M35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="71">
         <f>SUM(januar!N35,februar!N35,marec!M35,april!N35,maj!N35,junij!M35,julij!M35,avgust!N35,september!M35,oktober!N35,november!N35,december!N35)</f>
@@ -29645,7 +30107,7 @@
       </c>
       <c r="N5" s="71">
         <f>SUM(januar!O35,februar!O35,marec!N35,april!O35,maj!O35,junij!N35,julij!N35,avgust!O35,september!N35,oktober!O35,november!O35,december!O35)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="71">
         <f>SUM(januar!P35,februar!P35,marec!O35,april!P35,maj!P35,junij!O35,julij!O35,avgust!P35,september!O35,oktober!P35,november!P35,december!P35)</f>
@@ -29653,11 +30115,11 @@
       </c>
       <c r="P5" s="71">
         <f>SUM(januar!Q35,februar!Q35,marec!P35,april!Q35,maj!Q35,junij!P35,julij!P35,avgust!Q35,september!P35,oktober!Q35,november!Q35,december!Q35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="71">
         <f>SUM(januar!R35,februar!R35,marec!Q35,april!R35,maj!R35,junij!Q35,julij!Q35,avgust!R35,september!Q35,oktober!R35,november!R35,december!R35)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R5" s="71">
         <f>SUM(januar!S35,februar!S35,marec!R35,april!S35,maj!S35,junij!R35,julij!R35,avgust!S35,september!R35,oktober!S35,november!S35,december!S35)</f>
@@ -29665,11 +30127,11 @@
       </c>
       <c r="S5" s="71">
         <f>SUM(januar!T35,februar!T35,marec!S35,april!T35,maj!T35,junij!S35,julij!S35,avgust!T35,september!S35,oktober!T35,november!T35,december!T35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" s="71">
         <f>SUM(januar!U35,februar!U35,marec!T35,april!U35,maj!U35,junij!T35,julij!T35,avgust!U35,september!T35,oktober!U35,november!U35,december!U35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="51"/>
     </row>
@@ -29685,15 +30147,15 @@
       </c>
       <c r="D6" s="71">
         <f>SUM(januar!E36,februar!E36,marec!D36,april!E36,maj!E36,junij!D36,julij!D36,avgust!E36,september!D36,oktober!E36,november!E36,december!E36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="71">
         <f>SUM(januar!F36,februar!F36,marec!E36,april!F36,maj!F36,junij!E36,julij!E36,avgust!F36,september!E36,oktober!F36,november!F36,december!F36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="71">
         <f>SUM(januar!G36,februar!G36,marec!F36,april!G36,maj!G36,junij!F36,julij!F36,avgust!G36,september!F36,oktober!G36,november!G36,december!G36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="71">
         <f>SUM(januar!H36,februar!H36,marec!G36,april!H36,maj!H36,junij!G36,julij!G36,avgust!H36,september!G36,oktober!H36,november!H36,december!H36)</f>
@@ -29709,11 +30171,11 @@
       </c>
       <c r="J6" s="71">
         <f>SUM(januar!K36,februar!K36,marec!J36,april!K36,maj!K36,junij!J36,julij!J36,avgust!K36,september!J36,oktober!K36,november!K36,december!K36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="71">
         <f>SUM(januar!L36,februar!L36,marec!K36,april!L36,maj!L36,junij!K36,julij!K36,avgust!L36,september!K36,oktober!L36,november!L36,december!L36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="71">
         <f>SUM(januar!M36,februar!M36,marec!L36,april!M36,maj!M36,junij!L36,julij!L36,avgust!M36,september!L36,oktober!M36,november!M36,december!M36)</f>
@@ -29721,11 +30183,11 @@
       </c>
       <c r="M6" s="71">
         <f>SUM(januar!N36,februar!N36,marec!M36,april!N36,maj!N36,junij!M36,julij!M36,avgust!N36,september!M36,oktober!N36,november!N36,december!N36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6" s="71">
         <f>SUM(januar!O36,februar!O36,marec!N36,april!O36,maj!O36,junij!N36,julij!N36,avgust!O36,september!N36,oktober!O36,november!O36,december!O36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" s="71">
         <f>SUM(januar!P36,februar!P36,marec!O36,april!P36,maj!P36,junij!O36,julij!O36,avgust!P36,september!O36,oktober!P36,november!P36,december!P36)</f>
@@ -29733,7 +30195,7 @@
       </c>
       <c r="P6" s="71">
         <f>SUM(januar!Q36,februar!Q36,marec!P36,april!Q36,maj!Q36,junij!P36,julij!P36,avgust!Q36,september!P36,oktober!Q36,november!Q36,december!Q36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="71">
         <f>SUM(januar!R36,februar!R36,marec!Q36,april!R36,maj!R36,junij!Q36,julij!Q36,avgust!R36,september!Q36,oktober!R36,november!R36,december!R36)</f>
@@ -29745,11 +30207,11 @@
       </c>
       <c r="S6" s="71">
         <f>SUM(januar!T36,februar!T36,marec!S36,april!T36,maj!T36,junij!S36,julij!S36,avgust!T36,september!S36,oktober!T36,november!T36,december!T36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="71">
         <f>SUM(januar!U36,februar!U36,marec!T36,april!U36,maj!U36,junij!T36,julij!T36,avgust!U36,september!T36,oktober!U36,november!U36,december!U36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
@@ -29804,51 +30266,51 @@
       </c>
       <c r="C7" s="71">
         <f>SUM(januar!D37,februar!D37,marec!C37,april!D37,maj!D37,junij!C37,julij!C37,avgust!D37,september!C37,oktober!D37,november!D37,december!D37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="71">
         <f>SUM(januar!E37,februar!E37,marec!D37,april!E37,maj!E37,junij!D37,julij!D37,avgust!E37,september!D37,oktober!E37,november!E37,december!E37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="71">
         <f>SUM(januar!F37,februar!F37,marec!E37,april!F37,maj!F37,junij!E37,julij!E37,avgust!F37,september!E37,oktober!F37,november!F37,december!F37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="71">
         <f>SUM(januar!G37,februar!G37,marec!F37,april!G37,maj!G37,junij!F37,julij!F37,avgust!G37,september!F37,oktober!G37,november!G37,december!G37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="71">
         <f>SUM(januar!H37,februar!H37,marec!G37,april!H37,maj!H37,junij!G37,julij!G37,avgust!H37,september!G37,oktober!H37,november!H37,december!H37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="71">
         <f>SUM(januar!I37,februar!I37,marec!H37,april!I37,maj!I37,junij!H37,julij!H37,avgust!I37,september!H37,oktober!I37,november!I37,december!I37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="71">
         <f>SUM(januar!J37,februar!J37,marec!I37,april!J37,maj!J37,junij!I37,julij!I37,avgust!J37,september!I37,oktober!J37,november!J37,december!J37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="71">
         <f>SUM(januar!K37,februar!K37,marec!J37,april!K37,maj!K37,junij!J37,julij!J37,avgust!K37,september!J37,oktober!K37,november!K37,december!K37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="71">
         <f>SUM(januar!L37,februar!L37,marec!K37,april!L37,maj!L37,junij!K37,julij!K37,avgust!L37,september!K37,oktober!L37,november!L37,december!L37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="71">
         <f>SUM(januar!M37,februar!M37,marec!L37,april!M37,maj!M37,junij!L37,julij!L37,avgust!M37,september!L37,oktober!M37,november!M37,december!M37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="71">
         <f>SUM(januar!N37,februar!N37,marec!M37,april!N37,maj!N37,junij!M37,julij!M37,avgust!N37,september!M37,oktober!N37,november!N37,december!N37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="71">
         <f>SUM(januar!O37,februar!O37,marec!N37,april!O37,maj!O37,junij!N37,julij!N37,avgust!O37,september!N37,oktober!O37,november!O37,december!O37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="71">
         <f>SUM(januar!P37,februar!P37,marec!O37,april!P37,maj!P37,junij!O37,julij!O37,avgust!P37,september!O37,oktober!P37,november!P37,december!P37)</f>
@@ -29856,11 +30318,11 @@
       </c>
       <c r="P7" s="71">
         <f>SUM(januar!Q37,februar!Q37,marec!P37,april!Q37,maj!Q37,junij!P37,julij!P37,avgust!Q37,september!P37,oktober!Q37,november!Q37,december!Q37)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="71">
         <f>SUM(januar!R37,februar!R37,marec!Q37,april!R37,maj!R37,junij!Q37,julij!Q37,avgust!R37,september!Q37,oktober!R37,november!R37,december!R37)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" s="71">
         <f>SUM(januar!S37,februar!S37,marec!R37,april!S37,maj!S37,junij!R37,julij!R37,avgust!S37,september!R37,oktober!S37,november!S37,december!S37)</f>
@@ -29868,11 +30330,11 @@
       </c>
       <c r="S7" s="71">
         <f>SUM(januar!T37,februar!T37,marec!S37,april!T37,maj!T37,junij!S37,julij!S37,avgust!T37,september!S37,oktober!T37,november!T37,december!T37)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T7" s="71">
         <f>SUM(januar!U37,februar!U37,marec!T37,april!U37,maj!U37,junij!T37,julij!T37,avgust!U37,september!T37,oktober!U37,november!U37,december!U37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="72"/>
       <c r="V7" s="72"/>
@@ -29927,51 +30389,51 @@
       </c>
       <c r="C8" s="71">
         <f>SUM(januar!D37,februar!D37,marec!C37,april!D37,maj!D37,junij!C37,julij!C37,avgust!D37,september!C37,oktober!D37,november!D37,december!D37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="71">
         <f>SUM(januar!E37,februar!E37,marec!D37,april!E37,maj!E37,junij!D37,julij!D37,avgust!E37,september!D37,oktober!E37,november!E37,december!E37)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="71">
         <f>SUM(januar!F37,februar!F37,marec!E37,april!F37,maj!F37,junij!E37,julij!E37,avgust!F37,september!E37,oktober!F37,november!F37,december!F37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="71">
         <f>SUM(januar!G37,februar!G37,marec!F37,april!G37,maj!G37,junij!F37,julij!F37,avgust!G37,september!F37,oktober!G37,november!G37,december!G37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="71">
         <f>SUM(januar!H37,februar!H37,marec!G37,april!H37,maj!H37,junij!G37,julij!G37,avgust!H37,september!G37,oktober!H37,november!H37,december!H37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="71">
         <f>SUM(januar!I37,februar!I37,marec!H37,april!I37,maj!I37,junij!H37,julij!H37,avgust!I37,september!H37,oktober!I37,november!I37,december!I37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="71">
         <f>SUM(januar!J37,februar!J37,marec!I37,april!J37,maj!J37,junij!I37,julij!I37,avgust!J37,september!I37,oktober!J37,november!J37,december!J37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="71">
         <f>SUM(januar!K37,februar!K37,marec!J37,april!K37,maj!K37,junij!J37,julij!J37,avgust!K37,september!J37,oktober!K37,november!K37,december!K37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="71">
         <f>SUM(januar!L37,februar!L37,marec!K37,april!L37,maj!L37,junij!K37,julij!K37,avgust!L37,september!K37,oktober!L37,november!L37,december!L37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="71">
         <f>SUM(januar!M37,februar!M37,marec!L37,april!M37,maj!M37,junij!L37,julij!L37,avgust!M37,september!L37,oktober!M37,november!M37,december!M37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="71">
         <f>SUM(januar!N37,februar!N37,marec!M37,april!N37,maj!N37,junij!M37,julij!M37,avgust!N37,september!M37,oktober!N37,november!N37,december!N37)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="71">
         <f>SUM(januar!O37,februar!O37,marec!N37,april!O37,maj!O37,junij!N37,julij!N37,avgust!O37,september!N37,oktober!O37,november!O37,december!O37)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="71">
         <f>SUM(januar!P37,februar!P37,marec!O37,april!P37,maj!P37,junij!O37,julij!O37,avgust!P37,september!O37,oktober!P37,november!P37,december!P37)</f>
@@ -29979,11 +30441,11 @@
       </c>
       <c r="P8" s="71">
         <f>SUM(januar!Q37,februar!Q37,marec!P37,april!Q37,maj!Q37,junij!P37,julij!P37,avgust!Q37,september!P37,oktober!Q37,november!Q37,december!Q37)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="71">
         <f>SUM(januar!R37,februar!R37,marec!Q37,april!R37,maj!R37,junij!Q37,julij!Q37,avgust!R37,september!Q37,oktober!R37,november!R37,december!R37)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" s="71">
         <f>SUM(januar!S37,februar!S37,marec!R37,april!S37,maj!S37,junij!R37,julij!R37,avgust!S37,september!R37,oktober!S37,november!S37,december!S37)</f>
@@ -29991,11 +30453,11 @@
       </c>
       <c r="S8" s="71">
         <f>SUM(januar!T37,februar!T37,marec!S37,april!T37,maj!T37,junij!S37,julij!S37,avgust!T37,september!S37,oktober!T37,november!T37,december!T37)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" s="71">
         <f>SUM(januar!U37,februar!U37,marec!T37,april!U37,maj!U37,junij!T37,julij!T37,avgust!U37,september!T37,oktober!U37,november!U37,december!U37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8" s="72"/>
       <c r="V8" s="72"/>
@@ -30172,11 +30634,11 @@
       </c>
       <c r="C10" s="71">
         <f>SUM(januar!D40,februar!D40,marec!C40,april!D40,maj!D40,junij!C40,julij!C40,avgust!D40,september!C40,oktober!D40,november!D40,december!D40)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="71">
         <f>SUM(januar!E40,februar!E40,marec!D40,april!E40,maj!E40,junij!D40,julij!D40,avgust!E40,september!D40,oktober!E40,november!E40,december!E40)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="71">
         <f>SUM(januar!F40,februar!F40,marec!E40,april!F40,maj!F40,junij!E40,julij!E40,avgust!F40,september!E40,oktober!F40,november!F40,december!F40)</f>
@@ -30188,7 +30650,7 @@
       </c>
       <c r="G10" s="71">
         <f>SUM(januar!H40,februar!H40,marec!G40,april!H40,maj!H40,junij!G40,julij!G40,avgust!H40,september!G40,oktober!H40,november!H40,december!H40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="71">
         <f>SUM(januar!I40,februar!I40,marec!H40,april!I40,maj!I40,junij!H40,julij!H40,avgust!I40,september!H40,oktober!I40,november!I40,december!I40)</f>
@@ -30200,7 +30662,7 @@
       </c>
       <c r="J10" s="71">
         <f>SUM(januar!K40,februar!K40,marec!J40,april!K40,maj!K40,junij!J40,julij!J40,avgust!K40,september!J40,oktober!K40,november!K40,december!K40)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="71">
         <f>SUM(januar!L40,februar!L40,marec!K40,april!L40,maj!L40,junij!K40,julij!K40,avgust!L40,september!K40,oktober!L40,november!L40,december!L40)</f>
@@ -30212,11 +30674,11 @@
       </c>
       <c r="M10" s="71">
         <f>SUM(januar!N40,februar!N40,marec!M40,april!N40,maj!N40,junij!M40,julij!M40,avgust!N40,september!M40,oktober!N40,november!N40,december!N40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="71">
         <f>SUM(januar!O40,februar!O40,marec!N40,april!O40,maj!O40,junij!N40,julij!N40,avgust!O40,september!N40,oktober!O40,november!O40,december!O40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10" s="71">
         <f>SUM(januar!P40,februar!P40,marec!O40,april!P40,maj!P40,junij!O40,julij!O40,avgust!P40,september!O40,oktober!P40,november!P40,december!P40)</f>
@@ -30224,11 +30686,11 @@
       </c>
       <c r="P10" s="71">
         <f>SUM(januar!Q40,februar!Q40,marec!P40,april!Q40,maj!Q40,junij!P40,julij!P40,avgust!Q40,september!P40,oktober!Q40,november!Q40,december!Q40)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="71">
         <f>SUM(januar!R40,februar!R40,marec!Q40,april!R40,maj!R40,junij!Q40,julij!Q40,avgust!R40,september!Q40,oktober!R40,november!R40,december!R40)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R10" s="71">
         <f>SUM(januar!S40,februar!S40,marec!R40,april!S40,maj!S40,junij!R40,julij!R40,avgust!S40,september!R40,oktober!S40,november!S40,december!S40)</f>
@@ -30236,7 +30698,7 @@
       </c>
       <c r="S10" s="71">
         <f>SUM(januar!T40,februar!T40,marec!S40,april!T40,maj!T40,junij!S40,julij!S40,avgust!T40,september!S40,oktober!T40,november!T40,december!T40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="71">
         <f>SUM(januar!U40,februar!U40,marec!T40,april!U40,maj!U40,junij!T40,julij!T40,avgust!U40,september!T40,oktober!U40,november!U40,december!U40)</f>
@@ -30279,7 +30741,7 @@
       </c>
       <c r="J11" s="71">
         <f>SUM(januar!K41,februar!K41,marec!J41,april!K41,maj!K41,junij!J41,julij!J41,avgust!K41,september!J41,oktober!K41,november!K41,december!K41)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="71">
         <f>SUM(januar!L41,februar!L41,marec!K41,april!L41,maj!L41,junij!K41,julij!K41,avgust!L41,september!K41,oktober!L41,november!L41,december!L41)</f>
@@ -30409,19 +30871,19 @@
       </c>
       <c r="C13" s="71">
         <f>SUM(januar!D43,februar!D43,marec!C43,april!D43,maj!D43,junij!C43,julij!C43,avgust!D43,september!C43,oktober!D43,november!D43,december!D43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="71">
         <f>SUM(januar!E43,februar!E43,marec!D43,april!E43,maj!E43,junij!D43,julij!D43,avgust!E43,september!D43,oktober!E43,november!E43,december!E43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="71">
         <f>SUM(januar!F43,februar!F43,marec!E43,april!F43,maj!F43,junij!E43,julij!E43,avgust!F43,september!E43,oktober!F43,november!F43,december!F43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="71">
         <f>SUM(januar!G43,februar!G43,marec!F43,april!G43,maj!G43,junij!F43,julij!F43,avgust!G43,september!F43,oktober!G43,november!G43,december!G43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="71">
         <f>SUM(januar!H43,februar!H43,marec!G43,april!H43,maj!H43,junij!G43,julij!G43,avgust!H43,september!G43,oktober!H43,november!H43,december!H43)</f>
@@ -30429,31 +30891,31 @@
       </c>
       <c r="H13" s="71">
         <f>SUM(januar!I43,februar!I43,marec!H43,april!I43,maj!I43,junij!H43,julij!H43,avgust!I43,september!H43,oktober!I43,november!I43,december!I43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="71">
         <f>SUM(januar!J43,februar!J43,marec!I43,april!J43,maj!J43,junij!I43,julij!I43,avgust!J43,september!I43,oktober!J43,november!J43,december!J43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="71">
         <f>SUM(januar!K43,februar!K43,marec!J43,april!K43,maj!K43,junij!J43,julij!J43,avgust!K43,september!J43,oktober!K43,november!K43,december!K43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="71">
         <f>SUM(januar!L43,februar!L43,marec!K43,april!L43,maj!L43,junij!K43,julij!K43,avgust!L43,september!K43,oktober!L43,november!L43,december!L43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="71">
         <f>SUM(januar!M43,februar!M43,marec!L43,april!M43,maj!M43,junij!L43,julij!L43,avgust!M43,september!L43,oktober!M43,november!M43,december!M43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M13" s="71">
         <f>SUM(januar!N43,februar!N43,marec!M43,april!N43,maj!N43,junij!M43,julij!M43,avgust!N43,september!M43,oktober!N43,november!N43,december!N43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="71">
         <f>SUM(januar!O43,februar!O43,marec!N43,april!O43,maj!O43,junij!N43,julij!N43,avgust!O43,september!N43,oktober!O43,november!O43,december!O43)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="71">
         <f>SUM(januar!P43,februar!P43,marec!O43,april!P43,maj!P43,junij!O43,julij!O43,avgust!P43,september!O43,oktober!P43,november!P43,december!P43)</f>
@@ -30461,11 +30923,11 @@
       </c>
       <c r="P13" s="71">
         <f>SUM(januar!Q43,februar!Q43,marec!P43,april!Q43,maj!Q43,junij!P43,julij!P43,avgust!Q43,september!P43,oktober!Q43,november!Q43,december!Q43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="71">
         <f>SUM(januar!R43,februar!R43,marec!Q43,april!R43,maj!R43,junij!Q43,julij!Q43,avgust!R43,september!Q43,oktober!R43,november!R43,december!R43)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="71">
         <f>SUM(januar!S43,februar!S43,marec!R43,april!S43,maj!S43,junij!R43,julij!R43,avgust!S43,september!R43,oktober!S43,november!S43,december!S43)</f>
@@ -30473,11 +30935,11 @@
       </c>
       <c r="S13" s="71">
         <f>SUM(januar!T43,februar!T43,marec!S43,april!T43,maj!T43,junij!S43,julij!S43,avgust!T43,september!S43,oktober!T43,november!T43,december!T43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="71">
         <f>SUM(januar!U43,februar!U43,marec!T43,april!U43,maj!U43,junij!T43,julij!T43,avgust!U43,september!T43,oktober!U43,november!U43,december!U43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="51"/>
     </row>
@@ -30500,7 +30962,7 @@
       </c>
       <c r="F14" s="71">
         <f>SUM(januar!G44,februar!G44,marec!F44,april!G44,maj!G44,junij!F44,julij!F44,avgust!G44,september!F44,oktober!G44,november!G44,december!G44)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14" s="71">
         <f>SUM(januar!H44,februar!H44,marec!G44,april!H44,maj!H44,junij!G44,julij!G44,avgust!H44,september!G44,oktober!H44,november!H44,december!H44)</f>
@@ -30512,15 +30974,15 @@
       </c>
       <c r="I14" s="71">
         <f>SUM(januar!J44,februar!J44,marec!I44,april!J44,maj!J44,junij!I44,julij!I44,avgust!J44,september!I44,oktober!J44,november!J44,december!J44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="71">
         <f>SUM(januar!K44,februar!K44,marec!J44,april!K44,maj!K44,junij!J44,julij!J44,avgust!K44,september!J44,oktober!K44,november!K44,december!K44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="71">
         <f>SUM(januar!L44,februar!L44,marec!K44,april!L44,maj!L44,junij!K44,julij!K44,avgust!L44,september!K44,oktober!L44,november!L44,december!L44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="71">
         <f>SUM(januar!M44,februar!M44,marec!L44,april!M44,maj!M44,junij!L44,julij!L44,avgust!M44,september!L44,oktober!M44,november!M44,december!M44)</f>
@@ -30528,7 +30990,7 @@
       </c>
       <c r="M14" s="71">
         <f>SUM(januar!N44,februar!N44,marec!M44,april!N44,maj!N44,junij!M44,julij!M44,avgust!N44,september!M44,oktober!N44,november!N44,december!N44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="71">
         <f>SUM(januar!O44,februar!O44,marec!N44,april!O44,maj!O44,junij!N44,julij!N44,avgust!O44,september!N44,oktober!O44,november!O44,december!O44)</f>
@@ -30540,11 +31002,11 @@
       </c>
       <c r="P14" s="71">
         <f>SUM(januar!Q44,februar!Q44,marec!P44,april!Q44,maj!Q44,junij!P44,julij!P44,avgust!Q44,september!P44,oktober!Q44,november!Q44,december!Q44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="71">
         <f>SUM(januar!R44,februar!R44,marec!Q44,april!R44,maj!R44,junij!Q44,julij!Q44,avgust!R44,september!Q44,oktober!R44,november!R44,december!R44)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R14" s="71">
         <f>SUM(januar!S44,februar!S44,marec!R44,april!S44,maj!S44,junij!R44,julij!R44,avgust!S44,september!R44,oktober!S44,november!S44,december!S44)</f>
@@ -30567,15 +31029,15 @@
       </c>
       <c r="C15" s="71">
         <f>SUM(januar!D45,februar!D45,marec!C45,april!D45,maj!D45,junij!C45,julij!C45,avgust!D45,september!C45,oktober!D45,november!D45,december!D45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="71">
         <f>SUM(januar!E45,februar!E45,marec!D45,april!E45,maj!E45,junij!D45,julij!D45,avgust!E45,september!D45,oktober!E45,november!E45,december!E45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="71">
         <f>SUM(januar!F45,februar!F45,marec!E45,april!F45,maj!F45,junij!E45,julij!E45,avgust!F45,september!E45,oktober!F45,november!F45,december!F45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="71">
         <f>SUM(januar!G45,februar!G45,marec!F45,april!G45,maj!G45,junij!F45,julij!F45,avgust!G45,september!F45,oktober!G45,november!G45,december!G45)</f>
@@ -30587,7 +31049,7 @@
       </c>
       <c r="H15" s="71">
         <f>SUM(januar!I45,februar!I45,marec!H45,april!I45,maj!I45,junij!H45,julij!H45,avgust!I45,september!H45,oktober!I45,november!I45,december!I45)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="71">
         <f>SUM(januar!J45,februar!J45,marec!I45,april!J45,maj!J45,junij!I45,julij!I45,avgust!J45,september!I45,oktober!J45,november!J45,december!J45)</f>
@@ -30599,19 +31061,19 @@
       </c>
       <c r="K15" s="71">
         <f>SUM(januar!L45,februar!L45,marec!K45,april!L45,maj!L45,junij!K45,julij!K45,avgust!L45,september!K45,oktober!L45,november!L45,december!L45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="71">
         <f>SUM(januar!M45,februar!M45,marec!L45,april!M45,maj!M45,junij!L45,julij!L45,avgust!M45,september!L45,oktober!M45,november!M45,december!M45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="71">
         <f>SUM(januar!N45,februar!N45,marec!M45,april!N45,maj!N45,junij!M45,julij!M45,avgust!N45,september!M45,oktober!N45,november!N45,december!N45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="71">
         <f>SUM(januar!O45,februar!O45,marec!N45,april!O45,maj!O45,junij!N45,julij!N45,avgust!O45,september!N45,oktober!O45,november!O45,december!O45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="71">
         <f>SUM(januar!P45,februar!P45,marec!O45,april!P45,maj!P45,junij!O45,julij!O45,avgust!P45,september!O45,oktober!P45,november!P45,december!P45)</f>
@@ -30623,7 +31085,7 @@
       </c>
       <c r="Q15" s="71">
         <f>SUM(januar!R45,februar!R45,marec!Q45,april!R45,maj!R45,junij!Q45,julij!Q45,avgust!R45,september!Q45,oktober!R45,november!R45,december!R45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="71">
         <f>SUM(januar!S45,februar!S45,marec!R45,april!S45,maj!S45,junij!R45,julij!R45,avgust!S45,september!R45,oktober!S45,november!S45,december!S45)</f>
@@ -30631,11 +31093,11 @@
       </c>
       <c r="S15" s="71">
         <f>SUM(januar!T45,februar!T45,marec!S45,april!T45,maj!T45,junij!S45,julij!S45,avgust!T45,september!S45,oktober!T45,november!T45,december!T45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="71">
         <f>SUM(januar!U45,februar!U45,marec!T45,april!U45,maj!U45,junij!T45,julij!T45,avgust!U45,september!T45,oktober!U45,november!U45,december!U45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1">
@@ -30734,8 +31196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="160" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -31325,52 +31787,90 @@
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="E4" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="F4" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
       <c r="H4" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="I4" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="M4" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O4" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="P4" s="54"/>
       <c r="Q4" s="11" t="str">
         <f>Predloge!$B$11</f>
         <v>X</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="11" t="str">
+      <c r="R4" s="11" t="str">
         <f>Predloge!$B$11</f>
         <v>X</v>
       </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="U4" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="8" t="str">
+        <f>Predloge!$E$18</f>
+        <v>JNK</v>
+      </c>
       <c r="X4" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="56">
         <f t="shared" si="5"/>
@@ -31378,7 +31878,7 @@
       </c>
       <c r="AC4" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="56">
         <f t="shared" si="7"/>
@@ -31386,11 +31886,11 @@
       </c>
       <c r="AE4" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="57">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AG4" s="57">
         <f t="shared" si="10"/>
@@ -31398,7 +31898,7 @@
       </c>
       <c r="AH4" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="6" t="str">
         <f>Predloge!$B$4</f>
@@ -31410,15 +31910,15 @@
       </c>
       <c r="AK4" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AL4" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AM4" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AN4" s="58" t="str">
         <f t="shared" si="16"/>
@@ -31426,19 +31926,19 @@
       </c>
       <c r="AO4" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AP4" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AQ4" s="58" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AR4" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS4" s="58" t="str">
         <f t="shared" si="21"/>
@@ -31446,11 +31946,11 @@
       </c>
       <c r="AT4" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU4" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AV4" s="58" t="str">
         <f t="shared" si="24"/>
@@ -31462,7 +31962,7 @@
       </c>
       <c r="AX4" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AY4" s="58" t="str">
         <f t="shared" si="27"/>
@@ -31470,11 +31970,11 @@
       </c>
       <c r="AZ4" s="58" t="str">
         <f t="shared" si="28"/>
-        <v>X</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
@@ -31496,49 +31996,90 @@
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="E5" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="H5" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="6" t="str">
-        <f>Predloge!$B$12</f>
-        <v>D</v>
-      </c>
-      <c r="L5" s="54"/>
+      <c r="I5" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="L5" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
       <c r="M5" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="N5" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O5" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="Q5" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R5" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
       <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
+      <c r="T5" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="U5" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="8" t="str">
+        <f>Predloge!$E$18</f>
+        <v>JNK</v>
+      </c>
       <c r="X5" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="56">
         <f t="shared" si="5"/>
@@ -31546,7 +32087,7 @@
       </c>
       <c r="AC5" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="56">
         <f t="shared" si="7"/>
@@ -31554,19 +32095,19 @@
       </c>
       <c r="AE5" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="57">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AG5" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI5" s="6" t="str">
         <f>Predloge!$B$5</f>
@@ -31578,15 +32119,15 @@
       </c>
       <c r="AK5" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AL5" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM5" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN5" s="58" t="str">
         <f t="shared" si="16"/>
@@ -31594,19 +32135,19 @@
       </c>
       <c r="AO5" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AP5" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ5" s="58" t="str">
         <f t="shared" si="19"/>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="AR5" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AS5" s="58" t="str">
         <f t="shared" si="21"/>
@@ -31614,11 +32155,11 @@
       </c>
       <c r="AT5" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU5" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AV5" s="58" t="str">
         <f t="shared" si="24"/>
@@ -31626,11 +32167,11 @@
       </c>
       <c r="AW5" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX5" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AY5" s="58" t="str">
         <f t="shared" si="27"/>
@@ -31638,11 +32179,11 @@
       </c>
       <c r="AZ5" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BA5" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
@@ -31664,37 +32205,78 @@
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="E6" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
       <c r="H6" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="I6" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
       <c r="K6" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="M6" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="N6" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O6" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="Q6" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R6" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
       <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
+      <c r="T6" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="U6" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="8" t="str">
+        <f>Predloge!$E$18</f>
+        <v>JNK</v>
+      </c>
       <c r="X6" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="56">
         <f t="shared" si="2"/>
@@ -31702,11 +32284,11 @@
       </c>
       <c r="Z6" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="56">
         <f t="shared" si="5"/>
@@ -31722,19 +32304,19 @@
       </c>
       <c r="AE6" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="57">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AG6" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="6" t="str">
         <f>Predloge!$B$6</f>
@@ -31746,15 +32328,15 @@
       </c>
       <c r="AK6" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AL6" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM6" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AN6" s="58" t="str">
         <f t="shared" si="16"/>
@@ -31762,11 +32344,11 @@
       </c>
       <c r="AO6" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AP6" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ6" s="58" t="str">
         <f t="shared" si="19"/>
@@ -31774,7 +32356,7 @@
       </c>
       <c r="AR6" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AS6" s="58" t="str">
         <f t="shared" si="21"/>
@@ -31782,11 +32364,11 @@
       </c>
       <c r="AT6" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU6" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AV6" s="58" t="str">
         <f t="shared" si="24"/>
@@ -31794,11 +32376,11 @@
       </c>
       <c r="AW6" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX6" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AY6" s="58" t="str">
         <f t="shared" si="27"/>
@@ -31806,11 +32388,11 @@
       </c>
       <c r="AZ6" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BA6" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
@@ -31842,19 +32424,29 @@
       <c r="O7" s="54"/>
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="R7" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="S7" s="54"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="55"/>
+      <c r="U7" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>33</v>
+      </c>
       <c r="X7" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="56">
         <f t="shared" si="3"/>
@@ -31882,7 +32474,7 @@
       </c>
       <c r="AF7" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG7" s="57">
         <f t="shared" si="10"/>
@@ -31954,7 +32546,7 @@
       </c>
       <c r="AX7" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AY7" s="58" t="str">
         <f t="shared" si="27"/>
@@ -31966,7 +32558,7 @@
       </c>
       <c r="BA7" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
@@ -31984,10 +32576,16 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="G8" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
@@ -32002,15 +32600,19 @@
       <c r="S8" s="54"/>
       <c r="T8" s="54"/>
       <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+      <c r="V8" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>33</v>
+      </c>
       <c r="X8" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="56">
         <f t="shared" si="3"/>
@@ -32038,7 +32640,7 @@
       </c>
       <c r="AF8" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG8" s="57">
         <f t="shared" si="10"/>
@@ -32054,7 +32656,7 @@
       </c>
       <c r="AJ8" s="58" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AK8" s="58" t="str">
         <f t="shared" si="13"/>
@@ -32066,7 +32668,7 @@
       </c>
       <c r="AM8" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AN8" s="58" t="str">
         <f t="shared" si="16"/>
@@ -32140,44 +32742,92 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="D9" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="M9" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="N9" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="Q9" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
       <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
+      <c r="T9" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="V9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" s="8" t="str">
+        <f>Predloge!$E$16</f>
+        <v>ŽRJ</v>
+      </c>
       <c r="X9" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y9" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="56">
         <f t="shared" si="5"/>
@@ -32185,7 +32835,7 @@
       </c>
       <c r="AC9" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="56">
         <f t="shared" si="7"/>
@@ -32193,19 +32843,19 @@
       </c>
       <c r="AE9" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG9" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9" s="6" t="str">
         <f>Predloge!$B$9</f>
@@ -32213,39 +32863,39 @@
       </c>
       <c r="AJ9" s="58" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK9" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AL9" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM9" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN9" s="58" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO9" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AP9" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ9" s="58" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR9" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS9" s="58" t="str">
         <f t="shared" si="21"/>
@@ -32253,11 +32903,11 @@
       </c>
       <c r="AT9" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU9" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AV9" s="58" t="str">
         <f t="shared" si="24"/>
@@ -32265,11 +32915,11 @@
       </c>
       <c r="AW9" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX9" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AY9" s="58" t="str">
         <f t="shared" si="27"/>
@@ -32277,11 +32927,11 @@
       </c>
       <c r="AZ9" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="BA9" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="BB9" s="4"/>
       <c r="BC9" s="4"/>
@@ -32299,29 +32949,81 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="D10" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f>Predloge!$B$32</f>
+        <v>Am</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="Q10" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
       <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+      <c r="T10" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="U10" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="8" t="str">
+        <f>Predloge!$E$16</f>
+        <v>ŽRJ</v>
+      </c>
       <c r="X10" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="56">
         <f t="shared" si="2"/>
@@ -32329,11 +33031,11 @@
       </c>
       <c r="Z10" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="56">
         <f t="shared" si="5"/>
@@ -32341,7 +33043,7 @@
       </c>
       <c r="AC10" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="56">
         <f t="shared" si="7"/>
@@ -32349,19 +33051,19 @@
       </c>
       <c r="AE10" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF10" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG10" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI10" s="6" t="str">
         <f>Predloge!$B$10</f>
@@ -32369,51 +33071,51 @@
       </c>
       <c r="AJ10" s="58" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AK10" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL10" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM10" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN10" s="58" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO10" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>m</v>
       </c>
       <c r="AP10" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ10" s="58" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR10" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS10" s="58" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AT10" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU10" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AV10" s="58" t="str">
         <f t="shared" si="24"/>
@@ -32421,11 +33123,11 @@
       </c>
       <c r="AW10" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX10" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AY10" s="58" t="str">
         <f t="shared" si="27"/>
@@ -32433,11 +33135,11 @@
       </c>
       <c r="AZ10" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="BA10" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="BB10" s="4"/>
       <c r="BC10" s="4"/>
@@ -32455,41 +33157,90 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="D11" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O11" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
       <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="Q11" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="T11" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="U11" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="V11" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="8" t="str">
+        <f>Predloge!$E$8</f>
+        <v>BOŽ</v>
+      </c>
       <c r="X11" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="56">
         <f t="shared" si="5"/>
@@ -32497,7 +33248,7 @@
       </c>
       <c r="AC11" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="56">
         <f t="shared" si="7"/>
@@ -32505,19 +33256,19 @@
       </c>
       <c r="AE11" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF11" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG11" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="11" t="str">
         <f>Predloge!$B$11</f>
@@ -32525,51 +33276,51 @@
       </c>
       <c r="AJ11" s="58" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AK11" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="AL11" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM11" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN11" s="58" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO11" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AP11" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AQ11" s="58" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AR11" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS11" s="58" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AT11" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU11" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AV11" s="58" t="str">
         <f t="shared" si="24"/>
@@ -32577,11 +33328,11 @@
       </c>
       <c r="AW11" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX11" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AY11" s="58" t="str">
         <f t="shared" si="27"/>
@@ -32589,11 +33340,11 @@
       </c>
       <c r="AZ11" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="BA11" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="BB11" s="4"/>
       <c r="BC11" s="4"/>
@@ -32611,41 +33362,92 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="D12" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G12" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O12" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="Q12" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R12" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
+      <c r="T12" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="8" t="str">
+        <f>Predloge!$E$8</f>
+        <v>BOŽ</v>
+      </c>
       <c r="X12" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="56">
         <f t="shared" si="5"/>
@@ -32653,7 +33455,7 @@
       </c>
       <c r="AC12" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="56">
         <f t="shared" si="7"/>
@@ -32661,19 +33463,19 @@
       </c>
       <c r="AE12" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF12" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG12" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="6" t="str">
         <f>Predloge!$B$12</f>
@@ -32681,51 +33483,51 @@
       </c>
       <c r="AJ12" s="58" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK12" s="58" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL12" s="58" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM12" s="58" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AN12" s="58" t="str">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AO12" s="58" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AP12" s="58" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ12" s="58" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR12" s="58" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS12" s="58" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AT12" s="58" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU12" s="58" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AV12" s="58" t="str">
         <f t="shared" si="24"/>
@@ -32733,11 +33535,11 @@
       </c>
       <c r="AW12" s="58" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX12" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AY12" s="58" t="str">
         <f t="shared" si="27"/>
@@ -32745,11 +33547,11 @@
       </c>
       <c r="AZ12" s="58" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="BA12" s="58" t="str">
         <f t="shared" si="29"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BB12" s="4"/>
       <c r="BC12" s="4"/>
@@ -32767,41 +33569,92 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="D13" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="Q13" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R13" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
+      <c r="T13" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="8" t="str">
+        <f>Predloge!$E$8</f>
+        <v>BOŽ</v>
+      </c>
       <c r="X13" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="56">
         <f t="shared" si="5"/>
@@ -32809,7 +33662,7 @@
       </c>
       <c r="AC13" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="56">
         <f t="shared" si="7"/>
@@ -32817,19 +33670,19 @@
       </c>
       <c r="AE13" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG13" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="6" t="str">
         <f>Predloge!$B$13</f>
@@ -32837,31 +33690,31 @@
       </c>
       <c r="AJ13" s="58" t="str">
         <f t="shared" ref="AJ13:AJ23" si="30">RIGHT(D13,1)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK13" s="58" t="str">
         <f t="shared" ref="AK13:AK23" si="31">RIGHT(E13,1)</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AL13" s="58" t="str">
         <f t="shared" ref="AL13:AL23" si="32">RIGHT(F13,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM13" s="58" t="str">
         <f t="shared" ref="AM13:AM23" si="33">RIGHT(G13,1)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AN13" s="58" t="str">
         <f t="shared" ref="AN13:AN23" si="34">RIGHT(H13,1)</f>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AO13" s="58" t="str">
         <f t="shared" ref="AO13:AO23" si="35">RIGHT(I13,1)</f>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AP13" s="58" t="str">
         <f t="shared" ref="AP13:AP23" si="36">RIGHT(J13,1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ13" s="58" t="str">
         <f>RIGHT(K14,1)</f>
@@ -32869,19 +33722,19 @@
       </c>
       <c r="AR13" s="58" t="str">
         <f t="shared" ref="AR13:AR32" si="37">RIGHT(L13,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS13" s="58" t="str">
         <f t="shared" ref="AS13:AS32" si="38">RIGHT(M13,1)</f>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AT13" s="58" t="str">
         <f t="shared" ref="AT13:AT32" si="39">RIGHT(N13,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU13" s="58" t="str">
         <f t="shared" ref="AU13:AU32" si="40">RIGHT(O13,1)</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AV13" s="58" t="str">
         <f t="shared" ref="AV13:AV32" si="41">RIGHT(P13,1)</f>
@@ -32889,11 +33742,11 @@
       </c>
       <c r="AW13" s="58" t="str">
         <f t="shared" ref="AW13:AW32" si="42">RIGHT(Q13,1)</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX13" s="58" t="str">
         <f t="shared" ref="AX13:AX32" si="43">RIGHT(R13,1)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AY13" s="58" t="str">
         <f t="shared" ref="AY13:AY32" si="44">RIGHT(S13,1)</f>
@@ -32901,11 +33754,11 @@
       </c>
       <c r="AZ13" s="58" t="str">
         <f t="shared" ref="AZ13:AZ32" si="45">RIGHT(T13,1)</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="BA13" s="58" t="str">
         <f t="shared" ref="BA13:BA32" si="46">RIGHT(U13,1)</f>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
@@ -32925,14 +33778,20 @@
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="F14" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
+      <c r="M14" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
@@ -32941,15 +33800,19 @@
       <c r="S14" s="54"/>
       <c r="T14" s="54"/>
       <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
+      <c r="V14" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="55" t="s">
+        <v>2</v>
+      </c>
       <c r="X14" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="56">
         <f t="shared" si="3"/>
@@ -32977,7 +33840,7 @@
       </c>
       <c r="AF14" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG14" s="57">
         <f t="shared" si="10"/>
@@ -33001,7 +33864,7 @@
       </c>
       <c r="AL14" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AM14" s="58" t="str">
         <f t="shared" si="33"/>
@@ -33029,7 +33892,7 @@
       </c>
       <c r="AS14" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AT14" s="58" t="str">
         <f t="shared" si="39"/>
@@ -33085,11 +33948,17 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="J15" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
       <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="O15" s="54"/>
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
@@ -33097,15 +33966,19 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
+      <c r="V15" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>2</v>
+      </c>
       <c r="X15" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="56">
         <f t="shared" si="3"/>
@@ -33133,7 +34006,7 @@
       </c>
       <c r="AF15" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="57">
         <f t="shared" si="10"/>
@@ -33173,7 +34046,7 @@
       </c>
       <c r="AP15" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AQ15" s="58" t="str">
         <f t="shared" si="47"/>
@@ -33189,7 +34062,7 @@
       </c>
       <c r="AT15" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AU15" s="58" t="str">
         <f t="shared" si="40"/>
@@ -33235,44 +34108,92 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="6" t="str">
+      <c r="D16" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
+      <c r="E16" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="K16" s="6" t="str">
+        <f>Predloge!$B$15</f>
+        <v>SO</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="N16" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R16" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+      <c r="T16" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="V16" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="8" t="str">
+        <f>januar!$L$1</f>
+        <v>MŠŠ</v>
+      </c>
       <c r="X16" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="56">
         <f t="shared" si="5"/>
@@ -33280,7 +34201,7 @@
       </c>
       <c r="AC16" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="56">
         <f t="shared" si="7"/>
@@ -33288,19 +34209,19 @@
       </c>
       <c r="AE16" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF16" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG16" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="11" t="str">
         <f>Predloge!$B$16</f>
@@ -33308,51 +34229,51 @@
       </c>
       <c r="AJ16" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AK16" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AL16" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM16" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN16" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO16" s="58" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AP16" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ16" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AR16" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS16" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AT16" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AU16" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AV16" s="58" t="str">
         <f t="shared" si="41"/>
@@ -33360,11 +34281,11 @@
       </c>
       <c r="AW16" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX16" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>☺</v>
       </c>
       <c r="AY16" s="58" t="str">
         <f t="shared" si="44"/>
@@ -33372,11 +34293,11 @@
       </c>
       <c r="AZ16" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="BA16" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="BB16" s="4"/>
       <c r="BC16" s="4"/>
@@ -33394,44 +34315,93 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="D17" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H17" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>Predloge!$B$15</f>
+        <v>SO</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M17" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="N17" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="O17" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
       <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="6" t="str">
+      <c r="Q17" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
+      <c r="R17" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
+      <c r="T17" s="11" t="str">
+        <f>Predloge!$B$32</f>
+        <v>Am</v>
+      </c>
+      <c r="U17" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="8" t="str">
+        <f>januar!$L$1</f>
+        <v>MŠŠ</v>
+      </c>
       <c r="X17" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="56">
         <f t="shared" si="5"/>
@@ -33439,7 +34409,7 @@
       </c>
       <c r="AC17" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="56">
         <f t="shared" si="7"/>
@@ -33447,19 +34417,19 @@
       </c>
       <c r="AE17" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG17" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI17" s="15" t="str">
         <f>Predloge!$B$17</f>
@@ -33467,51 +34437,51 @@
       </c>
       <c r="AJ17" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK17" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AL17" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM17" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN17" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO17" s="58" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AP17" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ17" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AR17" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS17" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AT17" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AU17" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AV17" s="58" t="str">
         <f t="shared" si="41"/>
@@ -33519,11 +34489,11 @@
       </c>
       <c r="AW17" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX17" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="AY17" s="58" t="str">
         <f t="shared" si="44"/>
@@ -33531,11 +34501,11 @@
       </c>
       <c r="AZ17" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>m</v>
       </c>
       <c r="BA17" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="BB17" s="4"/>
       <c r="BC17" s="4"/>
@@ -33553,47 +34523,92 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="D18" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>45</v>
+      </c>
       <c r="I18" s="54" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="J18" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="K18" s="6" t="str">
+        <f>Predloge!$B$15</f>
+        <v>SO</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M18" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
       <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="6" t="str">
-        <f>Predloge!$B$12</f>
-        <v>D</v>
+      <c r="Q18" s="11" t="str">
+        <f>Predloge!$B$16</f>
+        <v>☻</v>
+      </c>
+      <c r="R18" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
       </c>
       <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55"/>
+      <c r="T18" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="U18" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V18" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="8" t="str">
+        <f>Predloge!$E$16</f>
+        <v>ŽRJ</v>
+      </c>
       <c r="X18" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="56">
         <f t="shared" si="5"/>
@@ -33601,7 +34616,7 @@
       </c>
       <c r="AC18" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="56">
         <f t="shared" si="7"/>
@@ -33609,19 +34624,19 @@
       </c>
       <c r="AE18" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF18" s="57">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AG18" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI18" s="15" t="str">
         <f>Predloge!$B$18</f>
@@ -33629,23 +34644,23 @@
       </c>
       <c r="AJ18" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AK18" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AL18" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM18" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN18" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO18" s="58" t="str">
         <f t="shared" si="35"/>
@@ -33653,27 +34668,27 @@
       </c>
       <c r="AP18" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AQ18" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AR18" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS18" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AT18" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AU18" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AV18" s="58" t="str">
         <f t="shared" si="41"/>
@@ -33681,11 +34696,11 @@
       </c>
       <c r="AW18" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AX18" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>¶</v>
       </c>
       <c r="AY18" s="58" t="str">
         <f t="shared" si="44"/>
@@ -33693,11 +34708,11 @@
       </c>
       <c r="AZ18" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BA18" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB18" s="4"/>
       <c r="BC18" s="4"/>
@@ -33715,47 +34730,91 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="D19" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
       <c r="I19" s="54" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="J19" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="K19" s="6" t="str">
+        <f>Predloge!$B$15</f>
+        <v>SO</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M19" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O19" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="6" t="str">
-        <f>Predloge!$B$12</f>
-        <v>D</v>
+      <c r="Q19" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
+      <c r="T19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V19" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="W19" s="8" t="str">
+        <f>Predloge!$E$16</f>
+        <v>ŽRJ</v>
+      </c>
       <c r="X19" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="56">
         <f t="shared" si="5"/>
@@ -33763,7 +34822,7 @@
       </c>
       <c r="AC19" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="56">
         <f t="shared" si="7"/>
@@ -33771,19 +34830,19 @@
       </c>
       <c r="AE19" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="57">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AG19" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI19" s="17" t="str">
         <f>Predloge!$B$19</f>
@@ -33791,23 +34850,23 @@
       </c>
       <c r="AJ19" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK19" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="AL19" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AM19" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN19" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AO19" s="58" t="str">
         <f t="shared" si="35"/>
@@ -33815,27 +34874,27 @@
       </c>
       <c r="AP19" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AQ19" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AR19" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS19" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AT19" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU19" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AV19" s="58" t="str">
         <f t="shared" si="41"/>
@@ -33843,11 +34902,11 @@
       </c>
       <c r="AW19" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AX19" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>K</v>
       </c>
       <c r="AY19" s="58" t="str">
         <f t="shared" si="44"/>
@@ -33855,11 +34914,11 @@
       </c>
       <c r="AZ19" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BA19" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB19" s="4"/>
       <c r="BC19" s="4"/>
@@ -33877,47 +34936,92 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="D20" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F20" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="H20" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="I20" s="54" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="J20" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f>Predloge!$B$15</f>
+        <v>SO</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="N20" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="O20" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="6" t="str">
+      <c r="Q20" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
+      <c r="R20" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="T20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V20" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="8" t="str">
+        <f>Predloge!$E$16</f>
+        <v>ŽRJ</v>
+      </c>
       <c r="X20" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="56">
         <f t="shared" si="5"/>
@@ -33933,19 +35037,19 @@
       </c>
       <c r="AE20" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF20" s="57">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AG20" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI20" s="19" t="str">
         <f>Predloge!$B$20</f>
@@ -33953,23 +35057,23 @@
       </c>
       <c r="AJ20" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK20" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL20" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM20" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN20" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AO20" s="58" t="str">
         <f t="shared" si="35"/>
@@ -33977,27 +35081,27 @@
       </c>
       <c r="AP20" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ20" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AR20" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS20" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AT20" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AU20" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AV20" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34005,11 +35109,11 @@
       </c>
       <c r="AW20" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX20" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>K</v>
       </c>
       <c r="AY20" s="58" t="str">
         <f t="shared" si="44"/>
@@ -34017,11 +35121,11 @@
       </c>
       <c r="AZ20" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BA20" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB20" s="4"/>
       <c r="BC20" s="4"/>
@@ -34040,7 +35144,10 @@
         <v>Sat</v>
       </c>
       <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="E21" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="F21" s="54"/>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
@@ -34057,11 +35164,15 @@
       <c r="S21" s="54"/>
       <c r="T21" s="54"/>
       <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
+      <c r="V21" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="55" t="s">
+        <v>28</v>
+      </c>
       <c r="X21" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="56">
         <f t="shared" si="2"/>
@@ -34093,7 +35204,7 @@
       </c>
       <c r="AF21" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG21" s="57">
         <f t="shared" si="10"/>
@@ -34113,7 +35224,7 @@
       </c>
       <c r="AK21" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AL21" s="58" t="str">
         <f t="shared" si="32"/>
@@ -34204,24 +35315,34 @@
       <c r="J22" s="54"/>
       <c r="K22" s="54"/>
       <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="M22" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="O22" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
       <c r="T22" s="54"/>
       <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="55"/>
+      <c r="V22" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="55" t="s">
+        <v>28</v>
+      </c>
       <c r="X22" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="56">
         <f t="shared" si="3"/>
@@ -34249,7 +35370,7 @@
       </c>
       <c r="AF22" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG22" s="57">
         <f t="shared" si="10"/>
@@ -34301,7 +35422,7 @@
       </c>
       <c r="AS22" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AT22" s="58" t="str">
         <f t="shared" si="39"/>
@@ -34309,7 +35430,7 @@
       </c>
       <c r="AU22" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AV22" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34351,44 +35472,92 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="6" t="str">
+      <c r="D23" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
+      <c r="E23" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="F23" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K23" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L23" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="M23" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O23" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R23" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
+      <c r="T23" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="U23" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="8" t="str">
+        <f>januar!$N$1</f>
+        <v>TAL</v>
+      </c>
       <c r="X23" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="56">
         <f t="shared" si="5"/>
@@ -34396,7 +35565,7 @@
       </c>
       <c r="AC23" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="56">
         <f t="shared" si="7"/>
@@ -34404,19 +35573,19 @@
       </c>
       <c r="AE23" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF23" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG23" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH23" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI23" s="23" t="str">
         <f>Predloge!$B$23</f>
@@ -34424,51 +35593,51 @@
       </c>
       <c r="AJ23" s="58" t="str">
         <f t="shared" si="30"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AK23" s="58" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AL23" s="58" t="str">
         <f t="shared" si="32"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AM23" s="58" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN23" s="58" t="str">
         <f t="shared" si="34"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO23" s="58" t="str">
         <f t="shared" si="35"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AP23" s="58" t="str">
         <f t="shared" si="36"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ23" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR23" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AS23" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AT23" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU23" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AV23" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34476,11 +35645,11 @@
       </c>
       <c r="AW23" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX23" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>☺</v>
       </c>
       <c r="AY23" s="58" t="str">
         <f t="shared" si="44"/>
@@ -34488,11 +35657,11 @@
       </c>
       <c r="AZ23" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="BA23" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB23" s="4"/>
       <c r="BC23" s="4"/>
@@ -34510,44 +35679,93 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="D24" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f>Predloge!$B$32</f>
+        <v>Am</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="M24" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O24" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
       <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="6" t="str">
-        <f>Predloge!$B$12</f>
-        <v>D</v>
+      <c r="Q24" s="11" t="str">
+        <f>Predloge!$B$16</f>
+        <v>☻</v>
+      </c>
+      <c r="R24" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
       </c>
       <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
+      <c r="T24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="U24" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V24" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="8" t="str">
+        <f>januar!$N$1</f>
+        <v>TAL</v>
+      </c>
       <c r="X24" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="56">
         <f t="shared" si="5"/>
@@ -34555,7 +35773,7 @@
       </c>
       <c r="AC24" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="56">
         <f t="shared" si="7"/>
@@ -34563,19 +35781,19 @@
       </c>
       <c r="AE24" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF24" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG24" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH24" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24" s="23" t="str">
         <f>Predloge!$B$24</f>
@@ -34583,51 +35801,51 @@
       </c>
       <c r="AJ24" s="58" t="str">
         <f>RIGHT(D30,1)</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK24" s="58" t="str">
         <f t="shared" ref="AK24:AK32" si="48">RIGHT(E24,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL24" s="58" t="str">
         <f t="shared" ref="AL24:AL32" si="49">RIGHT(F24,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM24" s="58" t="str">
         <f t="shared" ref="AM24:AM32" si="50">RIGHT(G24,1)</f>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN24" s="58" t="str">
         <f t="shared" ref="AN24:AN32" si="51">RIGHT(H24,1)</f>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO24" s="58" t="str">
         <f t="shared" ref="AO24:AO32" si="52">RIGHT(I24,1)</f>
-        <v/>
+        <v>m</v>
       </c>
       <c r="AP24" s="58" t="str">
         <f t="shared" ref="AP24:AP32" si="53">RIGHT(J24,1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ24" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR24" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AS24" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AT24" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU24" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AV24" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34635,11 +35853,11 @@
       </c>
       <c r="AW24" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AX24" s="58" t="str">
         <f t="shared" si="43"/>
-        <v>D</v>
+        <v>X</v>
       </c>
       <c r="AY24" s="58" t="str">
         <f t="shared" si="44"/>
@@ -34647,11 +35865,11 @@
       </c>
       <c r="AZ24" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BA24" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB24" s="4"/>
       <c r="BC24" s="4"/>
@@ -34669,44 +35887,91 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="D25" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="J25" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
+      <c r="Q25" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
       <c r="R25" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
       <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="55"/>
+      <c r="T25" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="8" t="str">
+        <f>januar!$N$1</f>
+        <v>TAL</v>
+      </c>
       <c r="X25" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="56">
         <f t="shared" si="5"/>
@@ -34714,7 +35979,7 @@
       </c>
       <c r="AC25" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="56">
         <f t="shared" si="7"/>
@@ -34722,19 +35987,19 @@
       </c>
       <c r="AE25" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF25" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG25" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH25" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI25" s="11" t="str">
         <f>Predloge!$B$25</f>
@@ -34742,51 +36007,51 @@
       </c>
       <c r="AJ25" s="58" t="str">
         <f t="shared" ref="AJ25:AJ32" si="54">RIGHT(D25,1)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK25" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL25" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM25" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN25" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO25" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AP25" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AQ25" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AR25" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AS25" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AT25" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AU25" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AV25" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34794,7 +36059,7 @@
       </c>
       <c r="AW25" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AX25" s="58" t="str">
         <f t="shared" si="43"/>
@@ -34806,11 +36071,11 @@
       </c>
       <c r="AZ25" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BA25" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BB25" s="4"/>
       <c r="BC25" s="4"/>
@@ -34828,44 +36093,92 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="D26" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K26" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
       <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
+      <c r="Q26" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="R26" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
       <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="55"/>
+      <c r="T26" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="U26" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="V26" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="8" t="str">
+        <f>januar!$G$1</f>
+        <v>KON</v>
+      </c>
       <c r="X26" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="56">
         <f t="shared" si="5"/>
@@ -34873,7 +36186,7 @@
       </c>
       <c r="AC26" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="56">
         <f t="shared" si="7"/>
@@ -34881,19 +36194,19 @@
       </c>
       <c r="AE26" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF26" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG26" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH26" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="11" t="str">
         <f>Predloge!$B$26</f>
@@ -34901,51 +36214,51 @@
       </c>
       <c r="AJ26" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AK26" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="AL26" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AM26" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN26" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AO26" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AP26" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ26" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AR26" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS26" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AT26" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AU26" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AV26" s="58" t="str">
         <f t="shared" si="41"/>
@@ -34953,7 +36266,7 @@
       </c>
       <c r="AW26" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX26" s="58" t="str">
         <f t="shared" si="43"/>
@@ -34965,11 +36278,11 @@
       </c>
       <c r="AZ26" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BA26" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
@@ -34987,44 +36300,93 @@
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
+      <c r="D27" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F27" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H27" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="K27" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L27" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="O27" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
+      <c r="Q27" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="R27" s="6" t="str">
         <f>Predloge!$B$12</f>
         <v>D</v>
       </c>
       <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
+      <c r="T27" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="U27" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="V27" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="8" t="str">
+        <f>januar!$G$1</f>
+        <v>KON</v>
+      </c>
       <c r="X27" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="56">
         <f t="shared" si="5"/>
@@ -35032,7 +36394,7 @@
       </c>
       <c r="AC27" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="56">
         <f t="shared" si="7"/>
@@ -35040,19 +36402,19 @@
       </c>
       <c r="AE27" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF27" s="57">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AG27" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI27" s="25" t="str">
         <f>Predloge!$B$27</f>
@@ -35060,51 +36422,51 @@
       </c>
       <c r="AJ27" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AK27" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL27" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AM27" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN27" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AO27" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AP27" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AQ27" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR27" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AS27" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="AT27" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AU27" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AV27" s="58" t="str">
         <f t="shared" si="41"/>
@@ -35112,7 +36474,7 @@
       </c>
       <c r="AW27" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX27" s="58" t="str">
         <f t="shared" si="43"/>
@@ -35124,11 +36486,11 @@
       </c>
       <c r="AZ27" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BA27" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
@@ -35152,7 +36514,10 @@
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="J28" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="K28" s="54"/>
       <c r="L28" s="54"/>
       <c r="M28" s="54"/>
@@ -35162,17 +36527,24 @@
       <c r="Q28" s="54"/>
       <c r="R28" s="54"/>
       <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
+      <c r="T28" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="55"/>
+      <c r="V28" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="X28" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="56">
         <f t="shared" si="3"/>
@@ -35200,7 +36572,7 @@
       </c>
       <c r="AF28" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG28" s="57">
         <f t="shared" si="10"/>
@@ -35240,7 +36612,7 @@
       </c>
       <c r="AP28" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AQ28" s="58" t="str">
         <f t="shared" si="47"/>
@@ -35280,7 +36652,7 @@
       </c>
       <c r="AZ28" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="BA28" s="58" t="str">
         <f t="shared" si="46"/>
@@ -35302,7 +36674,10 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="21" t="str">
+        <f>Predloge!$B$21</f>
+        <v>☺</v>
+      </c>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
@@ -35310,7 +36685,10 @@
       <c r="I29" s="54"/>
       <c r="J29" s="54"/>
       <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
+      <c r="L29" s="13" t="str">
+        <f>Predloge!$B$14</f>
+        <v>☻</v>
+      </c>
       <c r="M29" s="54"/>
       <c r="N29" s="54"/>
       <c r="O29" s="54"/>
@@ -35320,15 +36698,19 @@
       <c r="S29" s="54"/>
       <c r="T29" s="54"/>
       <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="55"/>
+      <c r="V29" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="X29" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="56">
         <f t="shared" si="3"/>
@@ -35356,7 +36738,7 @@
       </c>
       <c r="AF29" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" s="57">
         <f t="shared" si="10"/>
@@ -35372,7 +36754,7 @@
       </c>
       <c r="AJ29" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AK29" s="58" t="str">
         <f t="shared" si="48"/>
@@ -35404,7 +36786,7 @@
       </c>
       <c r="AR29" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AS29" s="58" t="str">
         <f t="shared" si="38"/>
@@ -35458,41 +36840,92 @@
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
+      <c r="D30" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K30" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L30" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="M30" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="O30" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
       <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
+      <c r="Q30" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R30" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="55"/>
+      <c r="T30" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="U30" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V30" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="W30" s="8" t="str">
+        <f>januar!$G$1</f>
+        <v>KON</v>
+      </c>
       <c r="X30" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y30" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="56">
         <f t="shared" si="5"/>
@@ -35500,7 +36933,7 @@
       </c>
       <c r="AC30" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="56">
         <f t="shared" si="7"/>
@@ -35508,19 +36941,19 @@
       </c>
       <c r="AE30" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF30" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG30" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH30" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI30" s="6" t="str">
         <f>Predloge!$B$30</f>
@@ -35528,51 +36961,51 @@
       </c>
       <c r="AJ30" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AK30" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AL30" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM30" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN30" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO30" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AP30" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ30" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR30" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AS30" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AT30" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AU30" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AV30" s="58" t="str">
         <f t="shared" si="41"/>
@@ -35580,11 +37013,11 @@
       </c>
       <c r="AW30" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX30" s="58" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY30" s="58" t="str">
         <f t="shared" si="44"/>
@@ -35592,11 +37025,11 @@
       </c>
       <c r="AZ30" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>F</v>
       </c>
       <c r="BA30" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
@@ -35614,41 +37047,93 @@
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="D31" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H31" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="L31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M31" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="N31" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="O31" s="11" t="str">
+        <f>Predloge!$B$32</f>
+        <v>Am</v>
+      </c>
       <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
+      <c r="Q31" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
+      <c r="R31" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="55"/>
+      <c r="T31" s="23" t="str">
+        <f>Predloge!$B$23</f>
+        <v>51☺</v>
+      </c>
+      <c r="U31" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="V31" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" s="8" t="str">
+        <f>januar!$G$1</f>
+        <v>KON</v>
+      </c>
       <c r="X31" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="56">
         <f t="shared" si="5"/>
@@ -35656,7 +37141,7 @@
       </c>
       <c r="AC31" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="56">
         <f t="shared" si="7"/>
@@ -35664,19 +37149,19 @@
       </c>
       <c r="AE31" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF31" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG31" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="28" t="str">
         <f>Predloge!$B$31</f>
@@ -35684,51 +37169,51 @@
       </c>
       <c r="AJ31" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AK31" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL31" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM31" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN31" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO31" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AP31" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ31" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AR31" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS31" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AT31" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AU31" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>m</v>
       </c>
       <c r="AV31" s="58" t="str">
         <f t="shared" si="41"/>
@@ -35736,11 +37221,11 @@
       </c>
       <c r="AW31" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AX31" s="58" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY31" s="58" t="str">
         <f t="shared" si="44"/>
@@ -35748,11 +37233,11 @@
       </c>
       <c r="AZ31" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="BA31" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
@@ -35770,41 +37255,92 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="D32" s="6" t="str">
+        <f>Predloge!$B$4</f>
+        <v>51</v>
+      </c>
+      <c r="E32" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="G32" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f>Predloge!$B$26</f>
+        <v>52¶</v>
+      </c>
+      <c r="J32" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="K32" s="9" t="str">
+        <f>Predloge!$B$7</f>
+        <v>KVIT☻</v>
+      </c>
+      <c r="L32" s="6" t="str">
+        <f>Predloge!$B$6</f>
+        <v>KVIT</v>
+      </c>
+      <c r="M32" s="6" t="str">
+        <f>Predloge!$B$5</f>
+        <v>52</v>
+      </c>
+      <c r="N32" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="O32" s="11" t="str">
+        <f>Predloge!$B$35</f>
+        <v>Ta</v>
+      </c>
       <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
+      <c r="Q32" s="19" t="str">
+        <f>Predloge!$B$20</f>
+        <v>☺</v>
+      </c>
+      <c r="R32" s="6" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="55"/>
+      <c r="T32" s="11" t="str">
+        <f>Predloge!$B$11</f>
+        <v>X</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V32" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="8" t="str">
+        <f>januar!$G$1</f>
+        <v>KON</v>
+      </c>
       <c r="X32" s="56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="56">
         <f t="shared" si="5"/>
@@ -35812,7 +37348,7 @@
       </c>
       <c r="AC32" s="56">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="56">
         <f t="shared" si="7"/>
@@ -35820,19 +37356,19 @@
       </c>
       <c r="AE32" s="56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF32" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AG32" s="57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI32" s="11" t="str">
         <f>Predloge!$B$32</f>
@@ -35840,51 +37376,51 @@
       </c>
       <c r="AJ32" s="58" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AK32" s="58" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AL32" s="58" t="str">
         <f t="shared" si="49"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AM32" s="58" t="str">
         <f t="shared" si="50"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AN32" s="58" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="AO32" s="58" t="str">
         <f t="shared" si="52"/>
-        <v/>
+        <v>¶</v>
       </c>
       <c r="AP32" s="58" t="str">
         <f t="shared" si="53"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AQ32" s="58" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>☻</v>
       </c>
       <c r="AR32" s="58" t="str">
         <f t="shared" si="37"/>
-        <v/>
+        <v>T</v>
       </c>
       <c r="AS32" s="58" t="str">
         <f t="shared" si="38"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AT32" s="58" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="AU32" s="58" t="str">
         <f t="shared" si="40"/>
-        <v/>
+        <v>a</v>
       </c>
       <c r="AV32" s="58" t="str">
         <f t="shared" si="41"/>
@@ -35892,11 +37428,11 @@
       </c>
       <c r="AW32" s="58" t="str">
         <f t="shared" si="42"/>
-        <v/>
+        <v>☺</v>
       </c>
       <c r="AX32" s="58" t="str">
         <f t="shared" si="43"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY32" s="58" t="str">
         <f t="shared" si="44"/>
@@ -35904,11 +37440,11 @@
       </c>
       <c r="AZ32" s="58" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="BA32" s="58" t="str">
         <f t="shared" si="46"/>
-        <v/>
+        <v>K</v>
       </c>
       <c r="BB32" s="4"/>
       <c r="BC32" s="4"/>
@@ -36006,7 +37542,7 @@
       </c>
       <c r="D35" s="61">
         <f t="shared" ref="D35:U35" si="55">COUNTIF(AJ2:AJ32,"☺")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="61">
         <f t="shared" si="55"/>
@@ -36022,15 +37558,15 @@
       </c>
       <c r="H35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K35" s="61">
         <f t="shared" si="55"/>
@@ -36042,7 +37578,7 @@
       </c>
       <c r="M35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N35" s="61">
         <f t="shared" si="55"/>
@@ -36050,7 +37586,7 @@
       </c>
       <c r="O35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35" s="61">
         <f t="shared" si="55"/>
@@ -36058,11 +37594,11 @@
       </c>
       <c r="Q35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="61">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S35" s="61">
         <f t="shared" si="55"/>
@@ -36070,11 +37606,11 @@
       </c>
       <c r="T35" s="61">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" s="61">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="11" t="str">
         <f>Predloge!$B$35</f>
@@ -36093,15 +37629,15 @@
       </c>
       <c r="E36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="61">
         <f t="shared" si="56"/>
@@ -36117,11 +37653,11 @@
       </c>
       <c r="K36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M36" s="61">
         <f t="shared" si="56"/>
@@ -36129,11 +37665,11 @@
       </c>
       <c r="N36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" s="61">
         <f t="shared" si="56"/>
@@ -36141,7 +37677,7 @@
       </c>
       <c r="Q36" s="61">
         <f t="shared" si="56"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" s="61">
         <f t="shared" si="56"/>
@@ -36153,11 +37689,11 @@
       </c>
       <c r="T36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" s="61">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" s="61"/>
       <c r="W36" s="63"/>
@@ -36216,51 +37752,51 @@
       </c>
       <c r="D37" s="66">
         <f t="shared" ref="D37:U37" si="57">SUM(D35:D36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P37" s="66">
         <f t="shared" si="57"/>
@@ -36268,11 +37804,11 @@
       </c>
       <c r="Q37" s="66">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R37" s="66">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S37" s="66">
         <f t="shared" si="57"/>
@@ -36280,11 +37816,11 @@
       </c>
       <c r="T37" s="66">
         <f t="shared" si="57"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U37" s="66">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V37" s="61"/>
       <c r="W37" s="63"/>
@@ -36347,15 +37883,15 @@
       </c>
       <c r="E38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" s="61">
         <f t="shared" si="58"/>
@@ -36371,11 +37907,11 @@
       </c>
       <c r="K38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M38" s="61">
         <f t="shared" si="58"/>
@@ -36383,11 +37919,11 @@
       </c>
       <c r="N38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P38" s="61">
         <f t="shared" si="58"/>
@@ -36407,11 +37943,11 @@
       </c>
       <c r="T38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U38" s="61">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V38" s="61"/>
       <c r="W38" s="61"/>
@@ -36596,11 +38132,11 @@
       </c>
       <c r="D40" s="61">
         <f t="shared" ref="D40:U40" si="60">COUNTIF(D2:D32,"D")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="61">
         <f t="shared" si="60"/>
@@ -36612,7 +38148,7 @@
       </c>
       <c r="H40" s="61">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="61">
         <f t="shared" si="60"/>
@@ -36624,7 +38160,7 @@
       </c>
       <c r="K40" s="61">
         <f t="shared" si="60"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="61">
         <f t="shared" si="60"/>
@@ -36636,11 +38172,11 @@
       </c>
       <c r="N40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P40" s="61">
         <f t="shared" si="60"/>
@@ -36648,11 +38184,11 @@
       </c>
       <c r="Q40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R40" s="61">
         <f t="shared" si="60"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S40" s="61">
         <f t="shared" si="60"/>
@@ -36660,7 +38196,7 @@
       </c>
       <c r="T40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="61">
         <f t="shared" si="60"/>
@@ -36706,7 +38242,7 @@
       </c>
       <c r="K41" s="61">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="61">
         <f t="shared" si="61"/>
@@ -36842,19 +38378,19 @@
       </c>
       <c r="D43" s="61">
         <f t="shared" ref="D43:U43" si="63">COUNTIF(D2:D32,"X")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="61">
         <f t="shared" si="63"/>
@@ -36862,31 +38398,31 @@
       </c>
       <c r="I43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P43" s="61">
         <f t="shared" si="63"/>
@@ -36894,11 +38430,11 @@
       </c>
       <c r="Q43" s="61">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S43" s="61">
         <f t="shared" si="63"/>
@@ -36906,11 +38442,11 @@
       </c>
       <c r="T43" s="61">
         <f t="shared" si="63"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43" s="61">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI43" s="32" t="str">
         <f>Predloge!$B$43</f>
@@ -36936,7 +38472,7 @@
       </c>
       <c r="G44" s="61">
         <f>COUNTIF(W2:W32,"KON")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H44" s="61">
         <f>COUNTIF(W2:W32,"oro")</f>
@@ -36948,15 +38484,15 @@
       </c>
       <c r="J44" s="61">
         <f>COUNTIF(W2:W32,"BOŽ")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="61">
         <f>COUNTIF(W2:W32,"TOM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" s="61">
         <f>COUNTIF(W2:W32,"MŠŠ")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="61">
         <f>COUNTIF(W2:W32,"ŽIV")</f>
@@ -36964,7 +38500,7 @@
       </c>
       <c r="N44" s="61">
         <f>COUNTIF(W2:W32,"TAL")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O44" s="61">
         <f>COUNTIF(W2:W32,"PIR")</f>
@@ -36976,11 +38512,11 @@
       </c>
       <c r="Q44" s="61">
         <f>COUNTIF(W2:W32,Q1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" s="61">
         <f>COUNTIF(W2:W32,R1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S44" s="61">
         <f>COUNTIF(W2:W32,S1)</f>
@@ -37006,15 +38542,15 @@
       </c>
       <c r="D45" s="61">
         <f t="shared" ref="D45:U45" si="64">COUNTIF(D2:D32,"51¶")+COUNTIF(D2:D32,"52¶")+COUNTIF(D2:D32,"kvit¶")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="61">
         <f t="shared" si="64"/>
@@ -37026,7 +38562,7 @@
       </c>
       <c r="I45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" s="61">
         <f t="shared" si="64"/>
@@ -37038,19 +38574,19 @@
       </c>
       <c r="L45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="61">
         <f t="shared" si="64"/>
@@ -37062,7 +38598,7 @@
       </c>
       <c r="R45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="61">
         <f t="shared" si="64"/>
@@ -37070,11 +38606,11 @@
       </c>
       <c r="T45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="61">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="36" t="str">
         <f>Predloge!$B$45</f>
@@ -37182,65 +38718,131 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N2 P2:S2 U2:W4 B3:P3 I4:L4 N4:P4 R4:S4 B4:C6 E4:G6 I5:J6 L5:L6 N5:W6 B7:W8 B9:L9 N9:W9 B10:W15 B16:Q20 S16:W20 B21:W22 B23:Q27 S23:W27 B28:W32">
-    <cfRule type="expression" dxfId="125" priority="5">
+  <conditionalFormatting sqref="B8:C13 H9:H11">
+    <cfRule type="expression" dxfId="143" priority="42">
+      <formula>ABS($A8)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="40">
+      <formula>WEEKDAY($B8,2)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="41">
+      <formula>WEEKDAY($B8,2)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:I28 K28:L28 M28:S29 U28:W29 E29:K29 B29:C32 H30:H32 P30:P32 S30:S32 V30:V32">
+    <cfRule type="expression" dxfId="140" priority="33">
+      <formula>ABS($A28)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="32">
+      <formula>WEEKDAY($B28,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="31">
+      <formula>WEEKDAY($B28,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:N2 P2:S2 U2:W3 B3:P3 B4:C6 P4:P6 V4:V6 B7:Q7 S7:T7 V7:W7 E8:F8 H8:W8 P9:P13 S9:S13 V9:V13 B14:E14 G14:L14 N14:W14 B15:I15 K15:M15 O15:W15 S16:S20 V16:V20 B21:D21 F21:W21 B22:L22 N22 P22:W22 B23:C27 P23:P27 S23:S27 V23:V27">
+    <cfRule type="expression" dxfId="137" priority="48">
+      <formula>WEEKDAY($B2,2)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="47">
       <formula>ABS($A2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="6">
-      <formula>WEEKDAY($B2,2)=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="7">
+    <cfRule type="expression" dxfId="135" priority="49">
       <formula>WEEKDAY($B2,2)=7</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="134" priority="2">
+      <formula>WEEKDAY($B23,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="3">
+      <formula>ABS($A23)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="1">
+      <formula>WEEKDAY($B23,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H17 B16:C20 P16:P20 H18:I18 I19:I20">
+    <cfRule type="expression" dxfId="131" priority="39">
+      <formula>ABS($A16)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="37">
+      <formula>WEEKDAY($B16,2)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="38">
+      <formula>WEEKDAY($B16,2)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H25">
+    <cfRule type="expression" dxfId="128" priority="35">
+      <formula>WEEKDAY($B23,2)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="36">
+      <formula>ABS($A23)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="34">
+      <formula>WEEKDAY($B23,2)=6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="expression" dxfId="122" priority="10">
+    <cfRule type="expression" dxfId="125" priority="50">
+      <formula>ABS($A34)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="52">
       <formula>WEEKDAY($B34,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="9">
+    <cfRule type="expression" dxfId="123" priority="51">
       <formula>WEEKDAY($B34,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="8">
-      <formula>ABS($A34)=1</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:T3 S4:S6">
+    <cfRule type="expression" dxfId="122" priority="26">
+      <formula>WEEKDAY($B3,2)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="25">
+      <formula>ABS($A3)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="27">
+      <formula>WEEKDAY($B3,2)=7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T3">
-    <cfRule type="expression" dxfId="119" priority="3">
-      <formula>WEEKDAY($B3,2)=7</formula>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="expression" dxfId="119" priority="7">
+      <formula>WEEKDAY($B29,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="2">
-      <formula>WEEKDAY($B3,2)=6</formula>
+    <cfRule type="expression" dxfId="118" priority="8">
+      <formula>WEEKDAY($B29,2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1">
-      <formula>ABS($A3)=1</formula>
+    <cfRule type="expression" dxfId="117" priority="9">
+      <formula>ABS($A29)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AE32">
-    <cfRule type="cellIs" dxfId="116" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="54" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF32">
-    <cfRule type="cellIs" dxfId="114" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="114" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG32">
-    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="57" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH32">
-    <cfRule type="cellIs" dxfId="111" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="58" operator="lessThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="59" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37258,7 +38860,7 @@
   <dimension ref="A1:BN49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -37514,7 +39116,10 @@
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
       <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="R2" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S2" s="54"/>
       <c r="T2" s="54"/>
       <c r="U2" s="54"/>
@@ -37554,7 +39159,7 @@
       </c>
       <c r="AF2" s="57">
         <f t="shared" ref="AF2:AF30" si="9">COUNTBLANK(D2:U2)-3</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG2" s="57">
         <f t="shared" ref="AG2:AG30" si="10">COUNTIF(D2:V2,"x")</f>
@@ -37626,7 +39231,7 @@
       </c>
       <c r="AX2" s="58" t="str">
         <f t="shared" ref="AX2:AX12" si="26">RIGHT(R2,1)</f>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY2" s="58" t="str">
         <f t="shared" ref="AY2:AY12" si="27">RIGHT(S2,1)</f>
@@ -37679,7 +39284,10 @@
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="R3" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
       <c r="U3" s="54"/>
@@ -37719,7 +39327,7 @@
       </c>
       <c r="AF3" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" s="57">
         <f t="shared" si="10"/>
@@ -37791,7 +39399,7 @@
       </c>
       <c r="AX3" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY3" s="58" t="str">
         <f t="shared" si="27"/>
@@ -38147,7 +39755,10 @@
       <c r="O6" s="54"/>
       <c r="P6" s="54"/>
       <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="R6" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S6" s="54"/>
       <c r="T6" s="54"/>
       <c r="U6" s="54"/>
@@ -38187,7 +39798,7 @@
       </c>
       <c r="AF6" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="57">
         <f t="shared" si="10"/>
@@ -38259,7 +39870,7 @@
       </c>
       <c r="AX6" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY6" s="58" t="str">
         <f t="shared" si="27"/>
@@ -38303,7 +39914,10 @@
       <c r="O7" s="54"/>
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="R7" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S7" s="54"/>
       <c r="T7" s="54"/>
       <c r="U7" s="54"/>
@@ -38343,7 +39957,7 @@
       </c>
       <c r="AF7" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG7" s="57">
         <f t="shared" si="10"/>
@@ -38415,7 +40029,7 @@
       </c>
       <c r="AX7" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY7" s="58" t="str">
         <f t="shared" si="27"/>
@@ -38459,7 +40073,10 @@
       <c r="O8" s="54"/>
       <c r="P8" s="54"/>
       <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
+      <c r="R8" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S8" s="54"/>
       <c r="T8" s="54"/>
       <c r="U8" s="54"/>
@@ -38499,7 +40116,7 @@
       </c>
       <c r="AF8" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" s="57">
         <f t="shared" si="10"/>
@@ -38571,7 +40188,7 @@
       </c>
       <c r="AX8" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY8" s="58" t="str">
         <f t="shared" si="27"/>
@@ -38774,7 +40391,10 @@
       <c r="O10" s="54"/>
       <c r="P10" s="54"/>
       <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="R10" s="54" t="str">
+        <f>Predloge!$B$12</f>
+        <v>D</v>
+      </c>
       <c r="S10" s="54"/>
       <c r="T10" s="54"/>
       <c r="U10" s="54"/>
@@ -38814,7 +40434,7 @@
       </c>
       <c r="AF10" s="57">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG10" s="57">
         <f t="shared" si="10"/>
@@ -38886,7 +40506,7 @@
       </c>
       <c r="AX10" s="58" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>D</v>
       </c>
       <c r="AY10" s="58" t="str">
         <f t="shared" si="27"/>
@@ -42938,7 +44558,7 @@
       </c>
       <c r="R40" s="61">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S40" s="61">
         <f t="shared" si="60"/>
